--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG007" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -385,6 +385,27 @@
   </si>
   <si>
     <t>Lỗi cập nhật thời gian</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi IC giao tiếp</t>
+  </si>
+  <si>
+    <t>000001029412645</t>
+  </si>
+  <si>
+    <t>TG.007.---16.051017</t>
+  </si>
+  <si>
+    <t>Hàn lại thạch anh 32Mhz</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị không khởi động được,Lỗi GPS</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1319,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="83" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1355,7 +1376,7 @@
       <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1380,7 +1401,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1470,7 +1491,7 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="105"/>
@@ -1511,16 +1532,32 @@
         <v>66</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>118</v>
+      </c>
       <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>119</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="84"/>
@@ -1542,7 +1579,7 @@
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="52"/>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
@@ -1571,7 +1608,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="52"/>
       <c r="K8" s="55"/>
       <c r="L8" s="52"/>
@@ -1600,7 +1637,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="52"/>
       <c r="K9" s="55"/>
       <c r="L9" s="52"/>
@@ -1629,7 +1666,7 @@
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="52"/>
       <c r="K10" s="1"/>
       <c r="L10" s="52"/>
@@ -1658,7 +1695,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="52"/>
       <c r="K11" s="55"/>
       <c r="L11" s="52"/>
@@ -1687,7 +1724,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="52"/>
       <c r="K12" s="55"/>
       <c r="L12" s="52"/>
@@ -1969,7 +2006,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2106,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
@@ -2100,7 +2137,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="52"/>
       <c r="K26" s="1"/>
       <c r="L26" s="52"/>
@@ -2132,7 +2169,7 @@
       <c r="F27" s="70"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="75"/>
       <c r="J27" s="52"/>
       <c r="K27" s="55"/>
       <c r="L27" s="52"/>
@@ -2196,7 +2233,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2228,7 +2265,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2260,7 +2297,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2278,7 +2315,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2329,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2324,7 +2361,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2356,7 +2393,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2388,7 +2425,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2420,7 +2457,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="77"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2452,7 +2489,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="77"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2470,7 +2507,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2521,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2511,7 +2548,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="77"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2538,7 +2575,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2570,7 +2607,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="77"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2602,7 +2639,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2629,7 +2666,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="77"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2656,7 +2693,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="77"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2687,7 +2724,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="77"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2719,7 +2756,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="77"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2751,7 +2788,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="77"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2783,7 +2820,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="77"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2815,7 +2852,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="77"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2847,7 +2884,7 @@
       <c r="F50" s="85"/>
       <c r="G50" s="85"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="I50" s="80"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -2879,7 +2916,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="77"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2911,7 +2948,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -2943,7 +2980,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="81"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -2975,7 +3012,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -3007,7 +3044,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="81"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3039,7 +3076,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="81"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3071,7 +3108,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="I57" s="81"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3098,7 +3135,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="81"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3125,7 +3162,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3152,7 +3189,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3179,7 +3216,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
+      <c r="I61" s="81"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3211,7 +3248,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="81"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3243,7 +3280,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
+      <c r="I63" s="81"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3270,7 +3307,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
+      <c r="I64" s="81"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3297,7 +3334,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="81"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3324,7 +3361,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="81"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3351,7 +3388,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
+      <c r="I67" s="81"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3381,7 +3418,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
+      <c r="I68" s="81"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3408,7 +3445,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="81"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3435,7 +3472,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
+      <c r="I70" s="81"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3462,7 +3499,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="81"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3489,7 +3526,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
+      <c r="I72" s="81"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3516,7 +3553,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3543,7 +3580,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="81"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3570,7 +3607,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="81"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3597,7 +3634,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="81"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3624,7 +3661,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="81"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3651,7 +3688,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="81"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3678,7 +3715,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="I79" s="81"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3705,7 +3742,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
+      <c r="I80" s="81"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3732,7 +3769,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="81"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3759,7 +3796,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="81"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3786,7 +3823,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="81"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3813,7 +3850,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="81"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -3840,7 +3877,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="81"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -3867,7 +3904,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
+      <c r="I86" s="81"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -3894,7 +3931,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
+      <c r="I87" s="81"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -3921,7 +3958,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
+      <c r="I88" s="81"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -3948,7 +3985,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
+      <c r="I89" s="81"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -3975,7 +4012,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="81"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -4002,7 +4039,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="81"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4029,7 +4066,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="81"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4056,7 +4093,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="81"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4083,7 +4120,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="81"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4110,7 +4147,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="81"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4137,7 +4174,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="81"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4164,7 +4201,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="81"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4191,7 +4228,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
+      <c r="I98" s="81"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4218,7 +4255,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
+      <c r="I99" s="81"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4245,7 +4282,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
+      <c r="I100" s="81"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4272,7 +4309,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
+      <c r="I101" s="81"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4299,7 +4336,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
+      <c r="I102" s="81"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4326,7 +4363,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
+      <c r="I103" s="81"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4353,7 +4390,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
+      <c r="I104" s="81"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4380,7 +4417,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
+      <c r="I105" s="81"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4430,7 +4467,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7591,7 +7628,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K17" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10931,8 +10968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R9" sqref="O9:R9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11157,9 +11194,15 @@
       <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="52"/>
+      <c r="H6" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="52" t="s">
         <v>99</v>
@@ -11337,7 +11380,9 @@
       <c r="L9" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="52"/>
+      <c r="M9" s="52" t="s">
+        <v>115</v>
+      </c>
       <c r="N9" s="54"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG007" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Thiết bị không khởi động được,Lỗi GPS</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
   </si>
 </sst>
 </file>
@@ -947,30 +950,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,10 +971,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1337,43 +1340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -1418,58 +1421,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1494,24 +1497,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1561,7 +1564,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="84"/>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1592,7 +1595,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="84"/>
-      <c r="V7" s="109"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="84"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1653,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
-      <c r="V9" s="109"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1682,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="84"/>
       <c r="U10" s="84"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
-      <c r="V11" s="109"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1740,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
-      <c r="V12" s="108" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1768,7 +1771,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="84"/>
       <c r="U13" s="84"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1800,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="84"/>
       <c r="U14" s="84"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="84"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1858,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="84"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="110"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3089,10 +3092,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="111" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3121,8 +3124,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3148,8 +3151,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4436,6 +4439,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4446,16 +4459,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4466,8 +4469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4498,43 +4501,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -4579,58 +4582,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4655,24 +4658,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4702,7 +4705,9 @@
       <c r="K6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="55" t="s">
+        <v>122</v>
+      </c>
       <c r="M6" s="52" t="s">
         <v>89</v>
       </c>
@@ -4722,7 +4727,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4753,7 +4758,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="109"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4782,7 +4787,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4816,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="109"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4840,7 +4845,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4869,7 +4874,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="109"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4898,7 +4903,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="108" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4929,7 +4934,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4958,7 +4963,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4987,7 +4992,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="69"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5016,7 +5021,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="69"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="110"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6250,10 +6255,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="111" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6282,8 +6287,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6309,8 +6314,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7597,6 +7602,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7607,16 +7622,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7659,43 +7664,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -7740,58 +7745,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7816,24 +7821,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7885,7 +7890,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7944,7 +7949,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="109"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7999,7 +8004,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8048,7 +8053,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="109"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8105,7 +8110,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8160,7 +8165,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="109"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8211,7 +8216,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="108" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8270,7 +8275,7 @@
       <c r="S13" s="95"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8299,7 +8304,7 @@
       <c r="S14" s="95"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8328,7 +8333,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8357,7 +8362,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="110"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9591,10 +9596,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="111" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9623,8 +9628,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9650,8 +9655,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10938,6 +10943,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10948,16 +10963,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11000,43 +11005,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="5"/>
       <c r="H2" s="72"/>
       <c r="I2" s="72"/>
@@ -11081,58 +11086,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -11157,24 +11162,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11226,7 +11231,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11285,7 +11290,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="109"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11344,7 +11349,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11391,7 +11396,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="109"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11420,7 +11425,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11449,7 +11454,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="109"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11478,7 +11483,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="108" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11509,7 +11514,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11538,7 +11543,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11567,7 +11572,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11596,7 +11601,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="110"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12832,10 +12837,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="111" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12864,8 +12869,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12891,8 +12896,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14179,6 +14184,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14189,16 +14204,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14241,43 +14246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -14322,58 +14327,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -14398,24 +14403,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14441,7 +14446,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="100" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14472,7 +14477,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="109"/>
+      <c r="V7" s="101"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14501,7 +14506,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="101"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14530,7 +14535,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="109"/>
+      <c r="V9" s="101"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14559,7 +14564,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="109"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14588,7 +14593,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="109"/>
+      <c r="V11" s="101"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14617,7 +14622,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="108" t="s">
+      <c r="V12" s="100" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14648,7 +14653,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="109"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14677,7 +14682,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="109"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14706,7 +14711,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="101"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14735,7 +14740,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="110"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15969,10 +15974,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="111" t="s">
+      <c r="V56" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="103">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -16001,8 +16006,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -16028,8 +16033,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17316,6 +17321,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17326,16 +17341,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG007" sheetId="31" r:id="rId1"/>
     <sheet name="TG102SE" sheetId="30" r:id="rId2"/>
-    <sheet name="TG007x" sheetId="29" r:id="rId3"/>
-    <sheet name="TG102" sheetId="27" r:id="rId4"/>
+    <sheet name="TG102" sheetId="27" r:id="rId3"/>
+    <sheet name="TG007x" sheetId="29" r:id="rId4"/>
     <sheet name="TongHopThang" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG007'!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG007x!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TG102'!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG007x!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongHopThang!$S$1:$S$105</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'TG007'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG007x!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG007x!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Lỗi cập nhật thời gian</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Thiết bị lỗi IC giao tiếp</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>TG.007.---16.051017</t>
   </si>
   <si>
-    <t>Hàn lại thạch anh 32Mhz</t>
-  </si>
-  <si>
     <t>203.162.121.025,09007</t>
   </si>
   <si>
@@ -409,6 +403,21 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>IMEI TB mới : 868183035938625</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>giữ lại</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa chữa thiết bị</t>
   </si>
 </sst>
 </file>
@@ -950,6 +959,30 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,34 +1004,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1340,43 +1349,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -1421,58 +1430,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="115" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="115" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1497,24 +1506,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1523,7 +1532,9 @@
       <c r="B6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>49</v>
       </c>
@@ -1536,21 +1547,21 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P6" s="52" t="s">
         <v>104</v>
@@ -1559,12 +1570,12 @@
         <v>18</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="84"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="108" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1595,7 +1606,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="84"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="109"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1635,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="84"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1664,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="109"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1682,7 +1693,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="84"/>
       <c r="U10" s="84"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="109"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="109"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1751,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="108" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1771,7 +1782,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="84"/>
       <c r="U13" s="84"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="109"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1811,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="84"/>
       <c r="U14" s="84"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="109"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1829,7 +1840,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="84"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1869,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="84"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="110"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2222,7 +2233,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,7 +2329,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,7 +2639,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,10 +3103,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="111">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3124,8 +3135,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3151,8 +3162,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3269,7 +3280,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,6 +4450,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4449,16 +4470,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4469,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4501,43 +4512,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -4582,58 +4593,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="115" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="115" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4658,24 +4669,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4684,7 +4695,9 @@
       <c r="B6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>47</v>
       </c>
@@ -4706,14 +4719,14 @@
         <v>85</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P6" s="52" t="s">
         <v>104</v>
@@ -4722,12 +4735,12 @@
         <v>19</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="108" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4758,7 +4771,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="109"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4787,7 +4800,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4816,7 +4829,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="109"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4845,7 +4858,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="109"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4874,7 +4887,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="109"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4903,7 +4916,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="108" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4934,7 +4947,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="109"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4963,7 +4976,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="109"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4992,7 +5005,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="69"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5021,7 +5034,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="69"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="110"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5353,7 +5366,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,7 +5622,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5791,7 +5804,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6255,10 +6268,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="111">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6287,8 +6300,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6314,8 +6327,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6432,7 +6445,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7602,6 +7615,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7612,6 +7635,3239 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="83" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="83" customWidth="1"/>
+    <col min="10" max="10" width="53" style="21" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="21" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="22" style="21" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="21" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="30.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="51">
+        <v>864161029412645</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="51">
+        <v>864161026901582</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="51">
+        <v>865904028280730</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="54">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="54">
+        <v>100000</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="10">
+        <f>SUM(W26:W36)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>49</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="10">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="10">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="111">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="38"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="10">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="10">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="37">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="38"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="38"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="38"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="38"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="38"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="38"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="38"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="38"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="38"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="38"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="38"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="38"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="38"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="38"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="38"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="38"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="38"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="38"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="38"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="38"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="38"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="38"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="38"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="38"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="38"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="38"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="38"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="38"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="38"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="38"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="81"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="38"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="38"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="38"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="38"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="38"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7622,18 +10878,28 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7664,43 +10930,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -7745,58 +11011,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="115" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="115" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7821,24 +11087,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7847,7 +11113,9 @@
       <c r="B6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -7890,7 +11158,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="108" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7904,7 +11172,9 @@
       <c r="B7" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>45</v>
       </c>
@@ -7949,7 +11219,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="109"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7961,7 +11231,9 @@
       <c r="B8" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>45</v>
       </c>
@@ -8004,7 +11276,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +11288,9 @@
       <c r="B9" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>45</v>
       </c>
@@ -8027,7 +11301,9 @@
       <c r="G9" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>121</v>
+      </c>
       <c r="I9" s="75"/>
       <c r="J9" s="52" t="s">
         <v>93</v>
@@ -8053,7 +11329,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="109"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8065,7 +11341,9 @@
       <c r="B10" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>45</v>
       </c>
@@ -8110,7 +11388,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="109"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8122,7 +11400,9 @@
       <c r="B11" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" s="50" t="s">
         <v>45</v>
       </c>
@@ -8165,7 +11445,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="109"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8177,7 +11457,9 @@
       <c r="B12" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" s="50" t="s">
         <v>45</v>
       </c>
@@ -8216,7 +11498,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="108" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8230,7 +11512,9 @@
       <c r="B13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="86" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" s="50" t="s">
         <v>45</v>
       </c>
@@ -8275,7 +11559,7 @@
       <c r="S13" s="95"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="109"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8304,7 +11588,7 @@
       <c r="S14" s="95"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="109"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8333,7 +11617,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8362,7 +11646,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="110"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9596,10 +12880,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="111">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9628,8 +12912,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9655,8 +12939,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10943,6 +14227,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10953,3257 +14247,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W105"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="83" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="83" customWidth="1"/>
-    <col min="10" max="10" width="53" style="21" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="21" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="21" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="22" style="21" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="21" customWidth="1"/>
-    <col min="19" max="20" width="26.85546875" style="21" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="21"/>
-    <col min="22" max="22" width="30.5703125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="21" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="28"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="107" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-    </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="51">
-        <v>864161029412645</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="51">
-        <v>864161026901582</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="51">
-        <v>865904028280730</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="10">
-        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" s="10">
-        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="10">
-        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="W37" s="10">
-        <f>SUM(W26:W36)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="17"/>
-    </row>
-    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="17"/>
-    </row>
-    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="17"/>
-    </row>
-    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="17"/>
-    </row>
-    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="W44" s="57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="W49" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
-        <v>45</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W50" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="W51" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W53" s="10">
-        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
-        <v>49</v>
-      </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W54" s="10">
-        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="W55" s="10">
-        <f>COUNTIF($D$6:$D$105,"CBN")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="W56" s="103">
-        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
-    </row>
-    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
-    </row>
-    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="38"/>
-    </row>
-    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="38"/>
-    </row>
-    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="W61" s="10">
-        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="W62" s="10">
-        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="38"/>
-    </row>
-    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="38"/>
-    </row>
-    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="38"/>
-    </row>
-    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="38"/>
-    </row>
-    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="45"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="37">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="38"/>
-    </row>
-    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="45"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="38"/>
-    </row>
-    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="38"/>
-    </row>
-    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="38"/>
-    </row>
-    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="45"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="38"/>
-    </row>
-    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="38"/>
-    </row>
-    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="38"/>
-    </row>
-    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="45"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="38"/>
-    </row>
-    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="45"/>
-      <c r="U75" s="47"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="38"/>
-    </row>
-    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="38"/>
-    </row>
-    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="47"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="38"/>
-    </row>
-    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="47"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="38"/>
-    </row>
-    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="81"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="38"/>
-    </row>
-    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="38"/>
-    </row>
-    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="38"/>
-    </row>
-    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="45"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="38"/>
-    </row>
-    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="45"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="38"/>
-    </row>
-    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="45"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="38"/>
-    </row>
-    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="45"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="38"/>
-    </row>
-    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="45"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="38"/>
-    </row>
-    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="45"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="38"/>
-    </row>
-    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="45"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="38"/>
-    </row>
-    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="47"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="38"/>
-    </row>
-    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="45"/>
-      <c r="U90" s="47"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="38"/>
-    </row>
-    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="81"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="45"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="38"/>
-    </row>
-    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="45"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="38"/>
-    </row>
-    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="45"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="38"/>
-    </row>
-    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="38"/>
-    </row>
-    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="45"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="38"/>
-    </row>
-    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="45"/>
-      <c r="U96" s="47"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="38"/>
-    </row>
-    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="45"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="38"/>
-    </row>
-    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="81"/>
-      <c r="I98" s="81"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="45"/>
-      <c r="U98" s="47"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="38"/>
-    </row>
-    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="45"/>
-      <c r="U99" s="47"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="38"/>
-    </row>
-    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="81"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="45"/>
-      <c r="U100" s="47"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="38"/>
-    </row>
-    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="47"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="38"/>
-    </row>
-    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="45"/>
-      <c r="U102" s="47"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="38"/>
-    </row>
-    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="45"/>
-      <c r="U103" s="47"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="38"/>
-    </row>
-    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="81"/>
-      <c r="I104" s="81"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="47"/>
-      <c r="V104" s="37"/>
-      <c r="W104" s="38"/>
-    </row>
-    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="35"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="46"/>
-      <c r="U105" s="48"/>
-      <c r="V105" s="39"/>
-      <c r="W105" s="40"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="S1:S105"/>
-  <mergeCells count="20">
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14246,43 +14289,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -14327,58 +14370,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="115" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="115" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -14403,24 +14446,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14446,7 +14489,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="100" t="s">
+      <c r="V6" s="108" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14477,7 +14520,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="109"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14506,7 +14549,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14535,7 +14578,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="109"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14564,7 +14607,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="109"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14593,7 +14636,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="109"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14622,7 +14665,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="100" t="s">
+      <c r="V12" s="108" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14653,7 +14696,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="109"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14682,7 +14725,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="109"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14711,7 +14754,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14740,7 +14783,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="110"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15974,10 +16017,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="103" t="s">
+      <c r="V56" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="103">
+      <c r="W56" s="111">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -16006,8 +16049,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -16033,8 +16076,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17321,6 +17364,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -17331,16 +17384,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="165">
   <si>
     <t>STT</t>
   </si>
@@ -494,6 +494,63 @@
   <si>
     <t>203.162.121.025,01102</t>
   </si>
+  <si>
+    <t>203.162.121.024,01202</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi phần cứng</t>
+  </si>
+  <si>
+    <t>Thay transistor, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>203.162.121.026,01102</t>
+  </si>
+  <si>
+    <t>Version B.2.25B</t>
+  </si>
+  <si>
+    <t>203.162.121.021,09004</t>
+  </si>
+  <si>
+    <t>000001205031338</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi flash</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa toàn bộ mạch</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>Thiết bị khởi động lại liên tục</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.171115</t>
+  </si>
+  <si>
+    <t>123.31.30.77,9007</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn 3,3v, hỏng MCU</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09007</t>
+  </si>
 </sst>
 </file>
 
@@ -735,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,6 +1093,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1395,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1427,43 +1487,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -1508,58 +1568,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1584,24 +1644,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1622,20 +1682,34 @@
         <v>66</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>149</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>151</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="100"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1694,7 +1768,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="100"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1718,20 +1792,36 @@
         <v>66</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="52"/>
+      <c r="I8" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>148</v>
+      </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="L8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="O8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>147</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="100"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1850,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="100"/>
       <c r="U9" s="100"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1789,7 +1879,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="100"/>
       <c r="U10" s="100"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +1908,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1937,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1878,7 +1968,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1907,7 +1997,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1936,7 +2026,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="100"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +2055,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="100"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2084,7 +2174,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,7 +2238,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2515,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,7 +2547,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2643,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2617,7 +2707,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,10 +3289,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3231,8 +3321,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3258,8 +3348,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4608,43 +4698,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4689,58 +4779,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4765,24 +4855,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4814,7 +4904,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4851,7 +4941,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4880,7 +4970,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4909,7 +4999,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4938,7 +5028,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4973,7 +5063,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5008,7 +5098,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5045,7 +5135,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5074,7 +5164,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5103,7 +5193,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5132,7 +5222,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6366,10 +6456,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6398,8 +6488,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6425,8 +6515,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7744,7 +7834,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:C64"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7775,43 +7865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7856,58 +7946,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7932,24 +8022,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7963,16 +8053,22 @@
         <v>48</v>
       </c>
       <c r="E6" s="51">
-        <v>865209034357088</v>
+        <v>865209034377813</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>161</v>
+      </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
       <c r="N6" s="54"/>
@@ -7983,7 +8079,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="100"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8010,7 +8106,9 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -8022,7 +8120,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="100"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8051,7 +8149,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="100"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8080,7 +8178,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="100"/>
       <c r="U9" s="100"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8207,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="100"/>
       <c r="U10" s="100"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8236,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8167,7 +8265,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8198,7 +8296,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8227,7 +8325,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8256,7 +8354,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="100"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8285,7 +8383,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="100"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9519,10 +9617,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9551,8 +9649,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9578,8 +9676,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10897,7 +10995,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10928,43 +11026,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11009,58 +11107,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -11085,24 +11183,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11136,7 +11234,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="100"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11167,7 +11265,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="100"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11196,7 +11294,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="100"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11225,7 +11323,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="100"/>
       <c r="U9" s="100"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11254,7 +11352,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="100"/>
       <c r="U10" s="100"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11283,7 +11381,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11312,7 +11410,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11343,7 +11441,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11372,7 +11470,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11401,7 +11499,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="100"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11430,7 +11528,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="100"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12664,10 +12762,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12696,8 +12794,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12723,8 +12821,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14042,7 +14140,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14073,43 +14171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -14154,58 +14252,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -14230,24 +14328,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14272,7 +14370,9 @@
       <c r="J6" s="52"/>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
@@ -14281,7 +14381,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="100"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14320,7 +14420,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="100"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14349,7 +14449,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="100"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14378,7 +14478,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="100"/>
       <c r="U9" s="100"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14407,7 +14507,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="100"/>
       <c r="U10" s="100"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14436,7 +14536,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14465,7 +14565,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14496,7 +14596,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14525,7 +14625,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14554,7 +14654,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="100"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14583,7 +14683,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="100"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15817,10 +15917,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -15849,8 +15949,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -15876,8 +15976,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17195,7 +17295,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17208,7 +17308,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="83" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -17226,46 +17326,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -17290,7 +17390,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -17307,58 +17407,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17380,27 +17480,27 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -17421,9 +17521,15 @@
         <v>66</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>152</v>
+      </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
       <c r="N6" s="54"/>
@@ -17434,7 +17540,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="100"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -17452,7 +17558,7 @@
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="52"/>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
@@ -17465,7 +17571,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="100"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17481,7 +17587,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="52"/>
       <c r="K8" s="55"/>
       <c r="L8" s="52"/>
@@ -17494,7 +17600,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="100"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17510,7 +17616,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="52"/>
       <c r="K9" s="55"/>
       <c r="L9" s="52"/>
@@ -17523,7 +17629,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="100"/>
       <c r="U9" s="100"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -17539,7 +17645,7 @@
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="52"/>
       <c r="K10" s="1"/>
       <c r="L10" s="52"/>
@@ -17552,7 +17658,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="100"/>
       <c r="U10" s="100"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17568,7 +17674,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="52"/>
       <c r="K11" s="55"/>
       <c r="L11" s="52"/>
@@ -17581,7 +17687,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17597,7 +17703,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="52"/>
       <c r="K12" s="55"/>
       <c r="L12" s="52"/>
@@ -17610,7 +17716,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -17641,7 +17747,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17670,7 +17776,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17699,7 +17805,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="100"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17728,7 +17834,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="100"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17979,7 +18085,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
@@ -18010,7 +18116,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="52"/>
       <c r="K26" s="1"/>
       <c r="L26" s="52"/>
@@ -18042,7 +18148,7 @@
       <c r="F27" s="70"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="75"/>
       <c r="J27" s="52"/>
       <c r="K27" s="55"/>
       <c r="L27" s="52"/>
@@ -18106,7 +18212,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -18138,7 +18244,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -18170,7 +18276,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -18202,7 +18308,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -18234,7 +18340,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -18266,7 +18372,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -18298,7 +18404,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -18330,7 +18436,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="77"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -18362,7 +18468,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="77"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -18394,7 +18500,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -18421,7 +18527,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="77"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -18448,7 +18554,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -18480,7 +18586,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="77"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -18512,7 +18618,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="77"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -18539,7 +18645,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="77"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -18566,7 +18672,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="77"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -18597,7 +18703,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="77"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -18629,7 +18735,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="77"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -18661,7 +18767,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="77"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -18693,7 +18799,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="77"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -18725,7 +18831,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="77"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -18757,7 +18863,7 @@
       <c r="F50" s="99"/>
       <c r="G50" s="99"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="I50" s="80"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -18789,7 +18895,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="77"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -18821,7 +18927,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -18853,7 +18959,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="81"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -18885,7 +18991,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -18917,7 +19023,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="81"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -18949,7 +19055,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="81"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -18962,10 +19068,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -18981,7 +19087,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="I57" s="81"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -18994,8 +19100,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -19008,7 +19114,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="81"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -19021,8 +19127,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -19035,7 +19141,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -19062,7 +19168,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -19089,7 +19195,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
+      <c r="I61" s="81"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -19121,7 +19227,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="81"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -19153,7 +19259,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
+      <c r="I63" s="81"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -19180,7 +19286,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
+      <c r="I64" s="81"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -19207,7 +19313,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="81"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -19234,7 +19340,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="81"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -19261,7 +19367,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
+      <c r="I67" s="81"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -19291,7 +19397,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
+      <c r="I68" s="81"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -19318,7 +19424,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="81"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -19345,7 +19451,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
+      <c r="I70" s="81"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -19372,7 +19478,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="81"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -19399,7 +19505,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
+      <c r="I72" s="81"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -19426,7 +19532,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -19453,7 +19559,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="81"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -19480,7 +19586,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="81"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -19507,7 +19613,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="81"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -19534,7 +19640,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="81"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -19561,7 +19667,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="81"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -19588,7 +19694,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="I79" s="81"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -19615,7 +19721,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
+      <c r="I80" s="81"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -19642,7 +19748,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="81"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -19669,7 +19775,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="81"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -19696,7 +19802,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="81"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -19723,7 +19829,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="81"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -19750,7 +19856,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="81"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -19777,7 +19883,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
+      <c r="I86" s="81"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -19804,7 +19910,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
+      <c r="I87" s="81"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -19831,7 +19937,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
+      <c r="I88" s="81"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -19858,7 +19964,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
+      <c r="I89" s="81"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -19885,7 +19991,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="81"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -19912,7 +20018,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="81"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -19939,7 +20045,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="81"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -19966,7 +20072,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="81"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -19993,7 +20099,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="81"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -20020,7 +20126,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="81"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -20047,7 +20153,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="81"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -20074,7 +20180,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="81"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -20101,7 +20207,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
+      <c r="I98" s="81"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -20128,7 +20234,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
+      <c r="I99" s="81"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -20155,7 +20261,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
+      <c r="I100" s="81"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -20182,7 +20288,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
+      <c r="I101" s="81"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -20209,7 +20315,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
+      <c r="I102" s="81"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -20236,7 +20342,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
+      <c r="I103" s="81"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -20263,7 +20369,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
+      <c r="I104" s="81"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -20290,7 +20396,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
+      <c r="I105" s="81"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -20340,7 +20446,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20371,43 +20477,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -20452,58 +20558,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -20528,24 +20634,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -20597,7 +20703,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="84"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -20623,9 +20729,13 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="75"/>
+      <c r="I7" s="75" t="s">
+        <v>164</v>
+      </c>
       <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
       <c r="N7" s="2"/>
@@ -20636,7 +20746,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="84"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20665,7 +20775,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="84"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20694,7 +20804,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -20723,7 +20833,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="84"/>
       <c r="U10" s="84"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20752,7 +20862,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20781,7 +20891,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -20812,7 +20922,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="84"/>
       <c r="U13" s="84"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20841,7 +20951,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="84"/>
       <c r="U14" s="84"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20870,7 +20980,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="84"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20899,7 +21009,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="84"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22133,10 +22243,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -22165,8 +22275,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -22192,8 +22302,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -23511,7 +23621,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23542,43 +23652,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -23623,58 +23733,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -23699,24 +23809,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -23770,7 +23880,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -23797,7 +23907,9 @@
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="75"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="52" t="s">
+        <v>160</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -23809,7 +23921,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -23838,7 +23950,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -23867,7 +23979,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -23896,7 +24008,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -23925,7 +24037,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -23954,7 +24066,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -23985,7 +24097,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -24014,7 +24126,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -24043,7 +24155,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="69"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -24072,7 +24184,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="69"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -25306,10 +25418,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -25338,8 +25450,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -25365,8 +25477,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -26683,8 +26795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26715,43 +26827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="72"/>
       <c r="I2" s="72"/>
@@ -26796,58 +26908,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -26872,24 +26984,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -26943,7 +27055,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -27004,7 +27116,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -27067,7 +27179,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -27118,7 +27230,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -27141,11 +27253,21 @@
       <c r="G10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
+      <c r="H10" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>99</v>
+      </c>
       <c r="M10" s="52"/>
       <c r="N10" s="54"/>
       <c r="O10" s="52"/>
@@ -27155,7 +27277,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -27200,7 +27322,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -27227,19 +27349,31 @@
       </c>
       <c r="H12" s="96"/>
       <c r="I12" s="75"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="52" t="s">
+        <v>158</v>
+      </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="52" t="s">
+        <v>159</v>
+      </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="O12" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -27292,7 +27426,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -27321,7 +27455,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -27350,7 +27484,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -27379,7 +27513,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -27530,7 +27664,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -27839,7 +27973,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28031,7 +28165,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28149,7 +28283,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28615,10 +28749,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -28647,8 +28781,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -28674,8 +28808,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -28792,7 +28926,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29992,8 +30126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30024,43 +30158,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="72"/>
@@ -30105,58 +30239,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="117" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="107" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -30181,24 +30315,24 @@
       <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="117"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -30252,7 +30386,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="110" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -30313,7 +30447,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="110"/>
+      <c r="V7" s="111"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -30370,7 +30504,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="111"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -30423,7 +30557,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="110"/>
+      <c r="V9" s="111"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -30482,7 +30616,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -30539,7 +30673,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="110"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -30592,7 +30726,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="110" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -30653,7 +30787,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -30674,7 +30808,7 @@
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="95" t="s">
@@ -30698,7 +30832,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="110"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -30753,7 +30887,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="110"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -30798,7 +30932,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -32230,10 +32364,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="112" t="s">
+      <c r="V56" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="113">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -32262,8 +32396,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -32289,8 +32423,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="114"/>
-      <c r="W58" s="114"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="183">
   <si>
     <t>STT</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Không sửa</t>
   </si>
   <si>
-    <t>giữ lại</t>
-  </si>
-  <si>
     <t>Khách báo không sửa chữa thiết bị</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>Không khắc phục được</t>
   </si>
   <si>
-    <t>Thiết bị khởi động lại liên tục</t>
-  </si>
-  <si>
     <t>TG.007S.---01.171115</t>
   </si>
   <si>
@@ -592,6 +586,24 @@
   </si>
   <si>
     <t>Thay IC nguồn, MCU, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thay module GPS, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thay flash, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>17/12/2020</t>
+  </si>
+  <si>
+    <t>chưa trả</t>
+  </si>
+  <si>
+    <t>D mới : 862846048288685</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nạp lại FW cho thiết bị</t>
   </si>
 </sst>
 </file>
@@ -834,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,12 +1101,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1526,43 +1532,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -1607,58 +1613,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1683,24 +1689,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1709,7 +1715,9 @@
       <c r="B6" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
@@ -1722,15 +1730,15 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
@@ -1743,12 +1751,12 @@
         <v>106</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="101" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1762,7 +1770,9 @@
       <c r="B7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>44</v>
       </c>
@@ -1775,19 +1785,19 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>95</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="2">
         <v>10000</v>
@@ -1806,8 +1816,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="102"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1819,7 +1829,9 @@
       <c r="B8" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>44</v>
       </c>
@@ -1832,10 +1844,10 @@
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="55"/>
       <c r="L8" s="55" t="s">
@@ -1855,12 +1867,12 @@
         <v>19</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="102"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1887,9 +1899,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1916,9 +1928,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="55"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="102"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1945,9 +1957,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="102"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1974,9 +1986,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -2005,9 +2017,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="102"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2034,9 +2046,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2063,9 +2075,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="99"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2092,9 +2104,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="99"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2121,9 +2133,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="55"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="99"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="97"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,7 +2160,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="55"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="99"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -2175,7 +2187,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="55"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="99"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -2206,7 +2218,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="99"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -2238,7 +2250,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="99"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -2270,7 +2282,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="99"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -2302,7 +2314,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -2329,7 +2341,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -2356,7 +2368,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="50"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="99"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -2387,7 +2399,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="50"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -2419,7 +2431,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="50"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="99"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -2451,7 +2463,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="99"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -2483,7 +2495,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="99"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -2515,7 +2527,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -2547,7 +2559,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="99"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -2579,7 +2591,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -2611,7 +2623,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="99"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -2643,7 +2655,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="99"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -2675,7 +2687,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="99"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -2707,7 +2719,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -2739,7 +2751,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -2771,7 +2783,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -2798,7 +2810,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -2825,7 +2837,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -2857,7 +2869,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -2889,7 +2901,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -2916,7 +2928,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -3118,10 +3130,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="98"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="34"/>
       <c r="I50" s="79"/>
       <c r="J50" s="34"/>
@@ -3132,7 +3144,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="98"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -3328,10 +3340,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3360,8 +3372,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3387,8 +3399,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4737,43 +4749,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4818,58 +4830,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4894,24 +4906,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4943,7 +4955,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4980,7 +4992,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5009,7 +5021,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5038,7 +5050,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5067,7 +5079,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5114,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5137,7 +5149,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5174,7 +5186,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5203,7 +5215,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5232,7 +5244,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +5273,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6495,10 +6507,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6527,8 +6539,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6554,8 +6566,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7872,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7904,43 +7916,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -7985,58 +7997,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8061,24 +8073,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8087,7 +8099,9 @@
       <c r="B6" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>48</v>
       </c>
@@ -8100,17 +8114,17 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N6" s="54">
         <v>10000</v>
@@ -8129,8 +8143,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="101" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8144,7 +8158,9 @@
       <c r="B7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>48</v>
       </c>
@@ -8157,15 +8173,15 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N7" s="2">
         <v>150000</v>
@@ -8184,8 +8200,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="102"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8213,8 +8229,8 @@
       <c r="R8" s="55"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="102"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8241,9 +8257,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8270,9 +8286,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="55"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="102"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8299,9 +8315,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="102"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8328,9 +8344,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8359,9 +8375,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="102"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8388,9 +8404,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8417,9 +8433,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="99"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8446,9 +8462,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="99"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8475,9 +8491,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="55"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="99"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="97"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8502,7 +8518,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="55"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="99"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -8529,7 +8545,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="55"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="99"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -8560,7 +8576,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="99"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -8592,7 +8608,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="99"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -8624,7 +8640,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="99"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -8656,7 +8672,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -8683,7 +8699,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -8710,7 +8726,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="50"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="99"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -8741,7 +8757,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="50"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -8773,7 +8789,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="50"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="99"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -8805,7 +8821,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="99"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -8837,7 +8853,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="99"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -8869,7 +8885,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -8901,7 +8917,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="99"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -8933,7 +8949,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -8965,7 +8981,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="99"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -8997,7 +9013,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="99"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -9029,7 +9045,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="99"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -9061,7 +9077,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -9093,7 +9109,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -9125,7 +9141,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -9152,7 +9168,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -9179,7 +9195,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -9211,7 +9227,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -9243,7 +9259,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -9270,7 +9286,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -9472,10 +9488,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="98"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="34"/>
       <c r="I50" s="79"/>
       <c r="J50" s="34"/>
@@ -9486,7 +9502,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="98"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -9682,10 +9698,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9714,8 +9730,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9741,8 +9757,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11060,7 +11076,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G25" sqref="A24:G25"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11091,43 +11107,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11172,58 +11188,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -11248,24 +11264,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11274,9 +11290,11 @@
       <c r="B6" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="51">
         <v>1801290048</v>
@@ -11291,7 +11309,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
@@ -11308,8 +11326,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="101" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11339,8 +11357,8 @@
       <c r="R7" s="55"/>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="102"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11368,8 +11386,8 @@
       <c r="R8" s="55"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="102"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11396,9 +11414,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11425,9 +11443,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="55"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="102"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11454,9 +11472,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="102"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11483,9 +11501,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11514,9 +11532,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="102"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11543,9 +11561,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11572,9 +11590,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="99"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11601,9 +11619,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="99"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11630,9 +11648,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="55"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="99"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="97"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11657,7 +11675,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="55"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="99"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -11684,7 +11702,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="55"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="99"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -11715,7 +11733,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="99"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -11747,7 +11765,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="99"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -11779,7 +11797,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="99"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -11811,7 +11829,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -11838,7 +11856,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -11865,7 +11883,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="50"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="99"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -11896,7 +11914,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="50"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -11928,7 +11946,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="50"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="99"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -11960,7 +11978,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="99"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -11992,7 +12010,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="99"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -12024,7 +12042,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -12056,7 +12074,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="99"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -12088,7 +12106,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -12120,7 +12138,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="99"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -12152,7 +12170,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="99"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -12184,7 +12202,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="99"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -12216,7 +12234,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -12248,7 +12266,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -12280,7 +12298,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -12307,7 +12325,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -12334,7 +12352,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -12366,7 +12384,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -12398,7 +12416,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -12425,7 +12443,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -12627,10 +12645,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="98"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
@@ -12641,7 +12659,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="98"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -12837,10 +12855,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12869,8 +12887,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12896,8 +12914,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14215,7 +14233,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14246,43 +14264,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -14327,58 +14345,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -14403,24 +14421,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14429,12 +14447,14 @@
       <c r="B6" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>126</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>127</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50" t="s">
@@ -14443,7 +14463,7 @@
       <c r="H6" s="69"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
@@ -14457,8 +14477,8 @@
       <c r="R6" s="50"/>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="101" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14472,12 +14492,14 @@
       <c r="B7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="49" t="s">
+        <v>180</v>
+      </c>
       <c r="D7" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>126</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>127</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50" t="s">
@@ -14498,8 +14520,8 @@
       <c r="R7" s="55"/>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="102"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14527,8 +14549,8 @@
       <c r="R8" s="55"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="102"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14555,9 +14577,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14584,9 +14606,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="55"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="102"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14613,9 +14635,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="102"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14642,9 +14664,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14673,9 +14695,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="102"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14702,9 +14724,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14731,9 +14753,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="99"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14760,9 +14782,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="99"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14789,9 +14811,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="55"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="99"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="97"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14816,7 +14838,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="55"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="99"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -14843,7 +14865,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="55"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="99"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -14874,7 +14896,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="99"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -14906,7 +14928,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="99"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -14938,7 +14960,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="99"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -14970,7 +14992,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -14997,7 +15019,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -15024,7 +15046,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="50"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="99"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -15055,7 +15077,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="50"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -15087,7 +15109,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="50"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="99"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -15119,7 +15141,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="99"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -15151,7 +15173,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="99"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -15183,7 +15205,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -15215,7 +15237,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="99"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -15247,7 +15269,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -15279,7 +15301,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="99"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -15311,7 +15333,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="99"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -15343,7 +15365,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="99"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -15375,7 +15397,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -15407,7 +15429,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -15439,7 +15461,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -15466,7 +15488,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -15493,7 +15515,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -15525,7 +15547,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -15557,7 +15579,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -15584,7 +15606,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -15786,10 +15808,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="98"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
@@ -15800,7 +15822,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="98"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -15996,10 +16018,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -16028,8 +16050,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -16055,8 +16077,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17373,8 +17395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17405,43 +17427,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -17486,58 +17508,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17562,24 +17584,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -17588,7 +17610,9 @@
       <c r="B6" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
@@ -17601,17 +17625,17 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N6" s="54">
         <v>10000</v>
@@ -17630,8 +17654,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="101" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -17661,8 +17685,8 @@
       <c r="R7" s="55"/>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="102"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17690,8 +17714,8 @@
       <c r="R8" s="55"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="102"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17718,9 +17742,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -17747,9 +17771,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="55"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="102"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17776,9 +17800,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="102"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17805,9 +17829,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -17836,9 +17860,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="102"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17865,9 +17889,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="102"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17894,9 +17918,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="99"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17923,9 +17947,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="99"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17952,9 +17976,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="55"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="99"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="97"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17979,7 +18003,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="55"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="99"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -18006,7 +18030,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="55"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="99"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -18037,7 +18061,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="99"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -18069,7 +18093,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="99"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -18101,7 +18125,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="99"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -18133,7 +18157,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -18160,7 +18184,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -18187,7 +18211,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="50"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="99"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -18218,7 +18242,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="50"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -18250,7 +18274,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="50"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="99"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -18282,7 +18306,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="99"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -18314,7 +18338,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="99"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -18346,7 +18370,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -18378,7 +18402,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="99"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -18410,7 +18434,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -18442,7 +18466,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="99"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -18474,7 +18498,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="99"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -18506,7 +18530,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="99"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -18538,7 +18562,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -18570,7 +18594,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -18602,7 +18626,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -18629,7 +18653,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -18656,7 +18680,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -18688,7 +18712,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -18720,7 +18744,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -18747,7 +18771,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -18949,10 +18973,10 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="98"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="34"/>
       <c r="I50" s="79"/>
       <c r="J50" s="34"/>
@@ -18963,7 +18987,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="98"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -19159,10 +19183,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -19191,8 +19215,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -19218,8 +19242,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -20536,8 +20560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20568,43 +20592,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -20649,58 +20673,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -20725,24 +20749,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -20776,7 +20800,7 @@
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
@@ -20794,7 +20818,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="83"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -20808,7 +20832,9 @@
       <c r="B7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>49</v>
       </c>
@@ -20821,7 +20847,7 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="1" t="s">
@@ -20829,7 +20855,7 @@
       </c>
       <c r="L7" s="52"/>
       <c r="M7" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="52" t="s">
@@ -20847,7 +20873,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="83"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20876,7 +20902,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="83"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20905,7 +20931,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="83"/>
       <c r="U9" s="83"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -20934,7 +20960,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="83"/>
       <c r="U10" s="83"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20963,7 +20989,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="83"/>
       <c r="U11" s="83"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20992,7 +21018,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -21023,7 +21049,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -21052,7 +21078,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -21081,7 +21107,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="83"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -21110,7 +21136,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="83"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22344,10 +22370,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -22376,8 +22402,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -22403,8 +22429,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -23721,8 +23747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23753,43 +23779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -23834,58 +23860,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -23910,24 +23936,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -23981,7 +24007,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -23995,7 +24021,9 @@
       <c r="B7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>47</v>
       </c>
@@ -24006,23 +24034,39 @@
       <c r="G7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="94" t="s">
+        <v>181</v>
+      </c>
       <c r="I7" s="74"/>
       <c r="J7" s="52" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="L7" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" s="2">
+        <v>220000</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>171</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -24051,7 +24095,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -24080,7 +24124,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -24109,7 +24153,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -24138,7 +24182,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -24167,7 +24211,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -24198,7 +24242,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -24227,7 +24271,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -24256,7 +24300,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -24285,7 +24329,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -24468,7 +24512,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24617,7 +24661,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24873,7 +24917,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24937,7 +24981,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -25519,10 +25563,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -25551,8 +25595,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -25578,8 +25622,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -26896,8 +26940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26928,43 +26972,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
@@ -27009,58 +27053,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -27085,24 +27129,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -27124,7 +27168,7 @@
       <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="94" t="s">
         <v>116</v>
       </c>
       <c r="I6" s="74" t="s">
@@ -27156,7 +27200,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -27183,7 +27227,7 @@
       <c r="G7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="94" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="74" t="s">
@@ -27217,7 +27261,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -27244,7 +27288,7 @@
       <c r="G8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="95" t="s">
         <v>96</v>
       </c>
       <c r="I8" s="74" t="s">
@@ -27280,7 +27324,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -27293,7 +27337,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>51</v>
@@ -27305,7 +27349,7 @@
       <c r="G9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="96"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="74" t="s">
         <v>113</v>
       </c>
@@ -27319,19 +27363,27 @@
         <v>99</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="N9" s="54">
         <v>100000</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="O9" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="87" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -27343,44 +27395,56 @@
       <c r="B10" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="51">
-        <v>867330022284270</v>
+        <v>864161020968892</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>157</v>
-      </c>
       <c r="K10" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L10" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="52"/>
+      <c r="M10" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="N10" s="54">
         <v>110000</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="50"/>
+      <c r="O10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -27392,7 +27456,9 @@
       <c r="B11" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D11" s="50" t="s">
         <v>51</v>
       </c>
@@ -27403,11 +27469,11 @@
       <c r="G11" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="96" t="s">
+      <c r="H11" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>142</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>143</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
@@ -27433,7 +27499,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -27445,7 +27511,9 @@
       <c r="B12" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D12" s="50" t="s">
         <v>51</v>
       </c>
@@ -27458,15 +27526,15 @@
       <c r="G12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="74"/>
       <c r="J12" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="52" t="s">
@@ -27484,7 +27552,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -27498,32 +27566,34 @@
       <c r="B13" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D13" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="88" t="s">
-        <v>135</v>
+      <c r="H13" s="93"/>
+      <c r="I13" s="86" t="s">
+        <v>134</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="89" t="s">
-        <v>99</v>
-      </c>
+      <c r="K13" s="87"/>
       <c r="L13" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="92">
+      <c r="M13" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="90">
         <v>100000</v>
       </c>
       <c r="O13" s="52" t="s">
@@ -27532,16 +27602,16 @@
       <c r="P13" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="91" t="s">
+      <c r="Q13" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="89" t="s">
+      <c r="R13" s="87" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="59"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -27556,7 +27626,7 @@
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="75"/>
       <c r="J14" s="1"/>
       <c r="K14" s="52"/>
@@ -27570,7 +27640,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -27585,7 +27655,7 @@
       <c r="E15" s="51"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="96"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="75"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -27599,7 +27669,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -27628,7 +27698,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -27643,7 +27713,7 @@
       <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="96"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="74"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -27670,7 +27740,7 @@
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="96"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="77"/>
       <c r="J18" s="14"/>
       <c r="K18" s="70"/>
@@ -27779,7 +27849,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -27992,7 +28062,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28088,7 +28158,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28280,7 +28350,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28864,10 +28934,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -28896,8 +28966,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -28923,8 +28993,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -30241,8 +30311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30273,43 +30343,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="114"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -30354,58 +30424,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="116" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -30430,24 +30500,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -30501,7 +30571,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="65"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -30562,7 +30632,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -30619,7 +30689,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -30645,7 +30715,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="52" t="s">
@@ -30672,7 +30742,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -30731,7 +30801,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
       <c r="U10" s="65"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -30788,7 +30858,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -30841,7 +30911,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -30871,13 +30941,13 @@
       <c r="H13" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="86" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="88" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="55" t="s">
@@ -30886,7 +30956,7 @@
       <c r="M13" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="92"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="52" t="s">
         <v>103</v>
       </c>
@@ -30899,10 +30969,10 @@
       <c r="R13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="93"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -30914,7 +30984,9 @@
       <c r="B14" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D14" s="50" t="s">
         <v>45</v>
       </c>
@@ -30926,22 +30998,24 @@
         <v>68</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>137</v>
+        <v>168</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="87" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="93"/>
+      <c r="M14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" s="91"/>
       <c r="O14" s="10" t="s">
         <v>103</v>
       </c>
@@ -30952,12 +31026,12 @@
         <v>106</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="S14" s="93"/>
+        <v>171</v>
+      </c>
+      <c r="S14" s="91"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -30969,7 +31043,9 @@
       <c r="B15" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" s="50" t="s">
         <v>45</v>
       </c>
@@ -30994,7 +31070,7 @@
         <v>67</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N15" s="54"/>
       <c r="O15" s="52" t="s">
@@ -31012,7 +31088,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="65"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -31024,7 +31100,9 @@
       <c r="B16" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" s="50" t="s">
         <v>45</v>
       </c>
@@ -31037,13 +31115,13 @@
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="52" t="s">
-        <v>140</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L16" s="55" t="s">
         <v>67</v>
@@ -31067,7 +31145,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="65"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -31079,7 +31157,9 @@
       <c r="B17" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" s="50" t="s">
         <v>45</v>
       </c>
@@ -31091,16 +31171,16 @@
         <v>68</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="55"/>
       <c r="M17" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N17" s="54"/>
       <c r="O17" s="52" t="s">
@@ -31113,7 +31193,7 @@
         <v>106</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="65"/>
@@ -31128,7 +31208,9 @@
       <c r="B18" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" s="50" t="s">
         <v>45</v>
       </c>
@@ -31181,7 +31263,9 @@
       <c r="B19" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" s="50" t="s">
         <v>45</v>
       </c>
@@ -31194,7 +31278,7 @@
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>81</v>
@@ -31238,7 +31322,9 @@
       <c r="B20" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" s="50" t="s">
         <v>45</v>
       </c>
@@ -31250,13 +31336,13 @@
         <v>68</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>69</v>
@@ -31265,7 +31351,7 @@
         <v>67</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="52" t="s">
@@ -31298,7 +31384,9 @@
       <c r="B21" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" s="50" t="s">
         <v>45</v>
       </c>
@@ -31356,7 +31444,9 @@
       <c r="B22" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D22" s="50" t="s">
         <v>45</v>
       </c>
@@ -31369,10 +31459,10 @@
       </c>
       <c r="H22" s="69"/>
       <c r="I22" s="78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>69</v>
@@ -31414,7 +31504,9 @@
       <c r="B23" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D23" s="50" t="s">
         <v>45</v>
       </c>
@@ -31426,7 +31518,7 @@
         <v>66</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I23" s="78" t="s">
         <v>87</v>
@@ -31441,7 +31533,7 @@
         <v>67</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N23" s="10">
         <v>200000</v>
@@ -31456,7 +31548,7 @@
         <v>106</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="65"/>
@@ -31471,7 +31563,9 @@
       <c r="B24" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D24" s="50" t="s">
         <v>45</v>
       </c>
@@ -31490,13 +31584,13 @@
         <v>95</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N24" s="10">
         <v>10000</v>
@@ -31526,7 +31620,9 @@
       <c r="B25" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D25" s="50" t="s">
         <v>45</v>
       </c>
@@ -31534,26 +31630,26 @@
         <v>868183034799325</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N25" s="10">
         <v>10000</v>
@@ -32341,7 +32437,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
@@ -32545,10 +32641,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -32577,8 +32673,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -32604,8 +32700,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="36" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="183">
   <si>
     <t>STT</t>
   </si>
@@ -1142,6 +1142,30 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,34 +1187,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1532,43 +1532,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -1613,58 +1613,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1689,24 +1689,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1756,7 +1756,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="97"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1817,7 +1817,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="97"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="97"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="97"/>
       <c r="U9" s="97"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="97"/>
       <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -2019,7 +2019,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="97"/>
       <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3340,10 +3340,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3372,8 +3372,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3399,8 +3399,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4687,6 +4687,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4697,16 +4707,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4717,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4749,43 +4749,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4830,58 +4830,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4906,56 +4906,74 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="51">
-        <v>865209034357088</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="56">
+        <v>867857039932608</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>148</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>149</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4966,33 +4984,57 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="51">
-        <v>865209034368531</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="56">
+        <v>867857039916965</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="I7" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>107</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5001,27 +5043,53 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="56">
+        <v>867717030417670</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="I8" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>147</v>
+      </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="L8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="O8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5030,27 +5098,55 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="51">
+        <v>865209034377813</v>
+      </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
+      <c r="I9" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>159</v>
+      </c>
       <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="M9" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="54">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5059,27 +5155,53 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="51">
+        <v>865209034368531</v>
+      </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="I10" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>161</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
+      <c r="M10" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" s="2">
+        <v>150000</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>107</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5088,33 +5210,47 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D11" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="56">
-        <v>867857039932608</v>
+        <v>127</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1801290048</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="50"/>
+        <v>68</v>
+      </c>
+      <c r="H11" s="58"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="55"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="M11" s="52" t="s">
+        <v>164</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
+      <c r="O11" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5123,33 +5259,49 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>179</v>
+      </c>
       <c r="D12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="56">
-        <v>867857039916965</v>
+        <v>125</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="58"/>
+        <v>68</v>
+      </c>
+      <c r="H12" s="69"/>
       <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="K12" s="55"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="O12" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5160,33 +5312,47 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>180</v>
+      </c>
       <c r="D13" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="56">
-        <v>867717030417670</v>
+        <v>125</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="74"/>
+        <v>68</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
+      <c r="M13" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5195,27 +5361,55 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868345035593359</v>
+      </c>
       <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
+      <c r="M14" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="54">
+        <v>10000</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5224,27 +5418,53 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="51">
+        <v>861693034932657</v>
+      </c>
       <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
+      <c r="G15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>117</v>
+      </c>
       <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
+      <c r="O15" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5253,27 +5473,51 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868004026323421</v>
+      </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="74" t="s">
+        <v>162</v>
+      </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="M16" s="52" t="s">
+        <v>174</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
+      <c r="O16" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5282,23 +5526,51 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="51">
+        <v>866104022160801</v>
+      </c>
       <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="G17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="55"/>
+      <c r="O17" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="29"/>
       <c r="U17" s="15"/>
@@ -5309,23 +5581,51 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="51">
+        <v>866104022169794</v>
+      </c>
       <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="94" t="s">
+        <v>181</v>
+      </c>
       <c r="I18" s="74"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="55"/>
+      <c r="J18" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="N18" s="2">
+        <v>220000</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>171</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="29"/>
       <c r="U18" s="15"/>
@@ -5336,23 +5636,51 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="51">
+        <v>864161029412645</v>
+      </c>
       <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="55"/>
+      <c r="G19" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="29"/>
       <c r="U19" s="15"/>
@@ -5367,23 +5695,53 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="51">
+        <v>864161026901582</v>
+      </c>
       <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="10"/>
+      <c r="G20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="29"/>
       <c r="U20" s="15"/>
@@ -5392,30 +5750,64 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="10"/>
+      <c r="B21" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="51">
+        <v>865904028280730</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="54">
+        <v>10000</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="29"/>
       <c r="U21" s="15"/>
@@ -5424,30 +5816,60 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="10"/>
+      <c r="G22" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" s="54">
+        <v>100000</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="87" t="s">
+        <v>21</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="29"/>
       <c r="U22" s="15"/>
@@ -5456,30 +5878,62 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
+      <c r="B23" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="51">
+        <v>864161020968892</v>
+      </c>
       <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="10"/>
+      <c r="G23" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="54">
+        <v>110000</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="29"/>
       <c r="U23" s="15"/>
@@ -5490,23 +5944,49 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="51">
+        <v>86590402117906</v>
+      </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="10"/>
+      <c r="G24" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="54"/>
+      <c r="O24" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="29"/>
       <c r="U24" s="15"/>
@@ -5517,23 +5997,47 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="B25" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="51">
+        <v>864161020968900</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="93"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
+      <c r="M25" s="52" t="s">
+        <v>158</v>
+      </c>
       <c r="N25" s="54"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="50"/>
+      <c r="O25" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="29"/>
       <c r="U25" s="15"/>
@@ -5548,24 +6052,52 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="B26" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>129</v>
+      </c>
       <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="3"/>
+      <c r="G26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="93"/>
+      <c r="I26" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="87"/>
+      <c r="L26" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N26" s="90">
+        <v>100000</v>
+      </c>
+      <c r="O26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="59"/>
       <c r="T26" s="29"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
@@ -5580,23 +6112,51 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
+      <c r="B27" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="51">
+        <v>868183038042649</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="I27" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="N27" s="54"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="50"/>
+      <c r="O27" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="29"/>
       <c r="U27" s="15"/>
@@ -5605,30 +6165,60 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="B28" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="51">
+        <v>860157040236645</v>
+      </c>
       <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="10"/>
+      <c r="G28" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="54"/>
+      <c r="O28" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="29"/>
       <c r="U28" s="15"/>
@@ -5637,30 +6227,58 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="10"/>
+      <c r="B29" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="51">
+        <v>868183037821571</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="54"/>
+      <c r="O29" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="29"/>
       <c r="U29" s="15"/>
@@ -5676,23 +6294,47 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
+      <c r="B30" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="51">
+        <v>868183037823833</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="74"/>
+      <c r="J30" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="29"/>
       <c r="U30" s="15"/>
@@ -5701,30 +6343,60 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="10"/>
+      <c r="B31" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="51">
+        <v>860157040199124</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="29"/>
       <c r="U31" s="15"/>
@@ -5733,30 +6405,58 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="10"/>
+      <c r="B32" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="51">
+        <v>868183037830051</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="54"/>
+      <c r="O32" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="29"/>
       <c r="U32" s="15"/>
@@ -5765,30 +6465,54 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="10"/>
+      <c r="B33" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="51">
+        <v>868183034728555</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="74"/>
+      <c r="J33" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="54"/>
+      <c r="O33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="29"/>
       <c r="U33" s="15"/>
@@ -5804,24 +6528,54 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="3"/>
+      <c r="B34" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="51">
+        <v>860157040218353</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="90"/>
+      <c r="O34" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="91"/>
       <c r="T34" s="29"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
@@ -5836,24 +6590,54 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="3"/>
+      <c r="B35" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="51">
+        <v>868183034603311</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="91"/>
+      <c r="O35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S35" s="91"/>
       <c r="T35" s="29"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
@@ -5861,30 +6645,58 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="10"/>
+      <c r="B36" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="51">
+        <v>868183037873903</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="69"/>
+      <c r="I36" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="54"/>
+      <c r="O36" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S36" s="3"/>
       <c r="T36" s="29"/>
       <c r="U36" s="15"/>
@@ -5893,30 +6705,58 @@
       </c>
       <c r="W36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="10"/>
+      <c r="B37" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="51">
+        <v>868183034793765</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="50"/>
+      <c r="I37" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="54"/>
+      <c r="O37" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="29"/>
       <c r="U37" s="15"/>
@@ -5925,30 +6765,54 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="10"/>
+      <c r="B38" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="51">
+        <v>868183037837197</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="77"/>
+      <c r="J38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="54"/>
+      <c r="O38" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="29"/>
       <c r="U38" s="15"/>
@@ -5959,23 +6823,51 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="B39" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="51">
+        <v>860157040235514</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="69"/>
+      <c r="I39" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="10"/>
+      <c r="O39" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S39" s="3"/>
       <c r="T39" s="29"/>
       <c r="U39" s="15"/>
@@ -5986,23 +6878,51 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="B40" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="51">
+        <v>860157040217033</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="10"/>
+      <c r="O40" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S40" s="3"/>
       <c r="T40" s="29"/>
       <c r="U40" s="15"/>
@@ -6018,23 +6938,53 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="B41" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="51">
+        <v>860157040198928</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="10"/>
+      <c r="O41" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S41" s="3"/>
       <c r="T41" s="29"/>
       <c r="U41" s="15"/>
@@ -6043,30 +6993,58 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="10"/>
+      <c r="B42" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="51">
+        <v>860157040218023</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S42" s="3"/>
       <c r="T42" s="29"/>
       <c r="U42" s="15"/>
@@ -6077,23 +7055,51 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="10"/>
+      <c r="B43" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="51">
+        <v>860157040212794</v>
+      </c>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="69"/>
+      <c r="I43" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="S43" s="3"/>
       <c r="T43" s="29"/>
       <c r="U43" s="15"/>
@@ -6104,23 +7110,55 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="10"/>
+      <c r="B44" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="51">
+        <v>868183034750989</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="10">
+        <v>200000</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
@@ -6135,23 +7173,53 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="10"/>
+      <c r="B45" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="51">
+        <v>868183033803672</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O45" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R45" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S45" s="3"/>
       <c r="T45" s="45"/>
       <c r="U45" s="15"/>
@@ -6167,23 +7235,55 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="10"/>
+      <c r="B46" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="51">
+        <v>868183034799325</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R46" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S46" s="3"/>
       <c r="T46" s="45"/>
       <c r="U46" s="15"/>
@@ -6224,7 +7324,7 @@
       </c>
       <c r="W47" s="10">
         <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +7356,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +7388,7 @@
       </c>
       <c r="W49" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,7 +7452,7 @@
       </c>
       <c r="W51" s="10">
         <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +7484,7 @@
       </c>
       <c r="W52" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,12 +7607,12 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6539,8 +7639,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6566,8 +7666,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6684,7 +7784,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7854,6 +8954,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7864,16 +8974,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7884,8 +8984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="F5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7916,43 +9016,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -7997,58 +9097,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8073,24 +9173,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8144,7 +9244,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="97"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8201,7 +9301,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="97"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8230,7 +9330,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="97"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8259,7 +9359,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="97"/>
       <c r="U9" s="97"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8288,7 +9388,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8317,7 +9417,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="97"/>
       <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8346,7 +9446,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8377,7 +9477,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8406,7 +9506,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="97"/>
       <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8435,7 +9535,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8464,7 +9564,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9698,10 +10798,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9730,8 +10830,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9757,8 +10857,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11045,6 +12145,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11055,16 +12165,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11075,8 +12175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11107,43 +12207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11188,58 +12288,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -11264,24 +12364,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11327,7 +12427,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="97"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11358,7 +12458,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="97"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11387,7 +12487,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="97"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11416,7 +12516,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="97"/>
       <c r="U9" s="97"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11445,7 +12545,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11474,7 +12574,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="97"/>
       <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11503,7 +12603,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11534,7 +12634,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11563,7 +12663,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="97"/>
       <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11592,7 +12692,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11621,7 +12721,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12855,10 +13955,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12887,8 +13987,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12914,8 +14014,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14202,6 +15302,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14212,16 +15322,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14232,8 +15332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14264,43 +15364,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -14345,58 +15445,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -14421,24 +15521,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14471,14 +15571,22 @@
         <v>92</v>
       </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="97"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14514,14 +15622,22 @@
         <v>92</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="O7" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="97"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14550,7 +15666,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="97"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14579,7 +15695,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="97"/>
       <c r="U9" s="97"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14608,7 +15724,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14637,7 +15753,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="97"/>
       <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14666,7 +15782,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14697,7 +15813,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14726,7 +15842,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="97"/>
       <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14755,7 +15871,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14784,7 +15900,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14935,7 +16051,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15212,7 +16328,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15436,7 +16552,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16018,10 +17134,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -16050,8 +17166,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -16077,8 +17193,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17365,6 +18481,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17375,16 +18501,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17395,8 +18511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17427,43 +18543,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -17508,58 +18624,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17584,24 +18700,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -17655,7 +18771,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="97"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -17686,7 +18802,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="97"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17715,7 +18831,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="97"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17744,7 +18860,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="97"/>
       <c r="U9" s="97"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -17773,7 +18889,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17802,7 +18918,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="97"/>
       <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17831,7 +18947,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -17862,7 +18978,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17891,7 +19007,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="97"/>
       <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17920,7 +19036,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17949,7 +19065,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="97"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19183,10 +20299,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -19215,8 +20331,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -19242,8 +20358,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -20530,6 +21646,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -20540,16 +21666,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20560,8 +21676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20592,43 +21708,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -20673,58 +21789,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -20749,24 +21865,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -20818,7 +21934,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="83"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -20873,7 +21989,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="83"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20902,7 +22018,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="83"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20931,7 +22047,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="83"/>
       <c r="U9" s="83"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -20960,7 +22076,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="83"/>
       <c r="U10" s="83"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20989,7 +22105,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="83"/>
       <c r="U11" s="83"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -21018,7 +22134,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -21049,7 +22165,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -21078,7 +22194,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -21107,7 +22223,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="83"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -21136,7 +22252,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="83"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22370,10 +23486,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -22402,8 +23518,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -22429,8 +23545,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -23717,6 +24833,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -23727,16 +24853,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23747,8 +24863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23779,43 +24895,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -23860,58 +24976,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -23936,24 +25052,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -24007,7 +25123,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -24066,7 +25182,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -24095,7 +25211,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -24124,7 +25240,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -24153,7 +25269,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -24182,7 +25298,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -24211,7 +25327,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -24242,7 +25358,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -24271,7 +25387,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -24300,7 +25416,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -24329,7 +25445,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -25563,10 +26679,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -25595,8 +26711,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -25622,8 +26738,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -26910,6 +28026,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -26920,16 +28046,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26940,8 +28056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26972,43 +28088,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
@@ -27053,58 +28169,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -27129,24 +28245,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -27200,7 +28316,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -27261,7 +28377,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -27324,7 +28440,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -27383,7 +28499,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -27444,7 +28560,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -27499,7 +28615,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -27552,7 +28668,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -27611,7 +28727,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -27640,7 +28756,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -27669,7 +28785,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -27698,7 +28814,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -28934,10 +30050,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -28966,8 +30082,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -28993,8 +30109,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -30281,6 +31397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -30291,16 +31417,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30311,8 +31427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30343,43 +31459,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="71"/>
@@ -30424,58 +31540,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -30500,24 +31616,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -30571,7 +31687,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="65"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -30632,7 +31748,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -30689,7 +31805,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -30742,7 +31858,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -30801,7 +31917,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
       <c r="U10" s="65"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -30858,7 +31974,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -30911,7 +32027,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -30972,7 +32088,7 @@
       <c r="S13" s="91"/>
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -31031,7 +32147,7 @@
       <c r="S14" s="91"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -31088,7 +32204,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="65"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -31145,7 +32261,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="65"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -32641,10 +33757,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -32673,8 +33789,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -32700,8 +33816,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -33988,6 +35104,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -33998,16 +35124,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
